--- a/tut05/output/0501CS35.xlsx
+++ b/tut05/output/0501CS35.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.346938775510204</v>
+        <v>7.35</v>
       </c>
       <c r="C6" t="n">
-        <v>7.636363636363637</v>
+        <v>7.64</v>
       </c>
       <c r="D6" t="n">
-        <v>8.348837209302326</v>
+        <v>8.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7.191489361702128</v>
+        <v>7.19</v>
       </c>
       <c r="F6" t="n">
-        <v>9.119047619047619</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.15</v>
       </c>
       <c r="H6" t="n">
-        <v>7.926829268292683</v>
+        <v>7.93</v>
       </c>
       <c r="I6" t="n">
         <v>7.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.346938775510204</v>
+        <v>7.35</v>
       </c>
       <c r="C8" t="n">
-        <v>7.483870967741935</v>
+        <v>7.48</v>
       </c>
       <c r="D8" t="n">
-        <v>7.757352941176471</v>
+        <v>7.76</v>
       </c>
       <c r="E8" t="n">
-        <v>7.612021857923497</v>
+        <v>7.61</v>
       </c>
       <c r="F8" t="n">
-        <v>7.893333333333334</v>
+        <v>7.89</v>
       </c>
       <c r="G8" t="n">
-        <v>7.932075471698113</v>
+        <v>7.93</v>
       </c>
       <c r="H8" t="n">
-        <v>7.931372549019608</v>
+        <v>7.93</v>
       </c>
       <c r="I8" t="n">
-        <v>7.864161849710983</v>
+        <v>7.86</v>
       </c>
     </row>
   </sheetData>
